--- a/códigos.xlsx
+++ b/códigos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ucallao.sharepoint.com/sites/DataBusinessControl/Documentos Partilhados/Ficheiros Equipa (Privado)/Análise/Absentismo/Caract/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{56322837-48CC-4A3C-A2A2-7F0897B041E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{61C6F6C1-AA6D-44D6-B9CF-4BD9EED0F2B3}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="8_{56322837-48CC-4A3C-A2A2-7F0897B041E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2FF2731F-31D3-4621-98F7-BBFE58FE5B6D}"/>
   <bookViews>
     <workbookView xWindow="28692" yWindow="-108" windowWidth="29016" windowHeight="15816" firstSheet="1" activeTab="1" xr2:uid="{C2785169-0460-40EA-9C3B-4B155FA3A02A}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="90">
   <si>
     <t>Falta</t>
   </si>
@@ -295,6 +295,18 @@
   </si>
   <si>
     <t>Exame Escolar / Formação</t>
+  </si>
+  <si>
+    <t>Trabalho Pago</t>
+  </si>
+  <si>
+    <t>Falta Injustificada</t>
+  </si>
+  <si>
+    <t>Falta Justificada</t>
+  </si>
+  <si>
+    <t>Ausência Não considerada no Absentismo</t>
   </si>
 </sst>
 </file>
@@ -323,7 +335,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -344,14 +356,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1026,10 +1052,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AE58389-09F4-4B9B-AE9B-F4FA1FE86211}">
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1037,9 +1063,10 @@
     <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="114.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>80</v>
       </c>
@@ -1050,7 +1077,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1060,8 +1087,11 @@
       <c r="C2" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1071,8 +1101,11 @@
       <c r="C3" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1082,8 +1115,11 @@
       <c r="C4" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1093,8 +1129,11 @@
       <c r="C5" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D5" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1104,8 +1143,11 @@
       <c r="C6" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D6" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1115,8 +1157,11 @@
       <c r="C7" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D7" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1126,8 +1171,11 @@
       <c r="C8" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D8" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1137,8 +1185,11 @@
       <c r="C9" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D9" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1148,8 +1199,11 @@
       <c r="C10" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D10" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1159,8 +1213,11 @@
       <c r="C11" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D11" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1170,8 +1227,11 @@
       <c r="C12" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D12" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1181,8 +1241,11 @@
       <c r="C13" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D13" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1192,8 +1255,11 @@
       <c r="C14" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D14" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -1203,8 +1269,11 @@
       <c r="C15" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D15" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -1214,8 +1283,11 @@
       <c r="C16" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D16" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1225,8 +1297,11 @@
       <c r="C17" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D17" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -1236,8 +1311,11 @@
       <c r="C18" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D18" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -1247,8 +1325,11 @@
       <c r="C19" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D19" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -1258,8 +1339,11 @@
       <c r="C20" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D20" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -1269,8 +1353,11 @@
       <c r="C21" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D21" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -1280,8 +1367,11 @@
       <c r="C22" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D22" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -1291,8 +1381,11 @@
       <c r="C23" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D23" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -1302,8 +1395,11 @@
       <c r="C24" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D24" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -1313,8 +1409,11 @@
       <c r="C25" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D25" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -1324,8 +1423,11 @@
       <c r="C26" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D26" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -1335,8 +1437,11 @@
       <c r="C27" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D27" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -1346,8 +1451,11 @@
       <c r="C28" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D28" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -1357,8 +1465,11 @@
       <c r="C29" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D29" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -1368,8 +1479,11 @@
       <c r="C30" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D30" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -1379,8 +1493,11 @@
       <c r="C31" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D31" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -1390,8 +1507,11 @@
       <c r="C32" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D32" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -1401,8 +1521,11 @@
       <c r="C33" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D33" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -1412,8 +1535,11 @@
       <c r="C34" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D34" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -1423,8 +1549,11 @@
       <c r="C35" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D35" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -1434,8 +1563,11 @@
       <c r="C36" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D36" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -1445,8 +1577,11 @@
       <c r="C37" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D37" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -1456,8 +1591,11 @@
       <c r="C38" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D38" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -1467,8 +1605,11 @@
       <c r="C39" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D39" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -1478,8 +1619,11 @@
       <c r="C40" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D40" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -1488,6 +1632,9 @@
       </c>
       <c r="C41" t="s">
         <v>75</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -1496,15 +1643,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010043FDEB035DA74E448CDA37477BF42340" ma:contentTypeVersion="12" ma:contentTypeDescription="Criar um novo documento." ma:contentTypeScope="" ma:versionID="d701f75f2990b357cda15c6115325b6d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c8e3c621-944b-4b18-beee-61e0324a86cd" xmlns:ns3="f608d11f-b353-490d-9130-5a44a58122a2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4631b3025ae9a9f9488bafe4c4e29cdf" ns2:_="" ns3:_="">
     <xsd:import namespace="c8e3c621-944b-4b18-beee-61e0324a86cd"/>
@@ -1705,6 +1843,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -1717,15 +1864,30 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CAA65670-B084-4760-8936-AA93C5FA0014}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="c8e3c621-944b-4b18-beee-61e0324a86cd"/>
+    <ds:schemaRef ds:uri="f608d11f-b353-490d-9130-5a44a58122a2"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3D76EA24-C913-488F-A21F-2ADAF39F7ADE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CAA65670-B084-4760-8936-AA93C5FA0014}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>

--- a/códigos.xlsx
+++ b/códigos.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ucallao.sharepoint.com/sites/DataBusinessControl/Documentos Partilhados/Ficheiros Equipa (Privado)/Análise/Absentismo/Caract/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23" documentId="8_{56322837-48CC-4A3C-A2A2-7F0897B041E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2FF2731F-31D3-4621-98F7-BBFE58FE5B6D}"/>
+  <xr:revisionPtr revIDLastSave="25" documentId="8_{56322837-48CC-4A3C-A2A2-7F0897B041E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8D17D6D2-5B71-46DE-9A80-55F275E7C1C3}"/>
   <bookViews>
-    <workbookView xWindow="28692" yWindow="-108" windowWidth="29016" windowHeight="15816" firstSheet="1" activeTab="1" xr2:uid="{C2785169-0460-40EA-9C3B-4B155FA3A02A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{C2785169-0460-40EA-9C3B-4B155FA3A02A}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="hidden" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="90">
   <si>
     <t>Falta</t>
   </si>
@@ -712,345 +711,6 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08D6543F-43CD-440C-AF6D-3E0930CB7DB7}">
-  <dimension ref="A1:B40"/>
-  <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B40"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="29.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="114.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>32</v>
-      </c>
-      <c r="B33" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>33</v>
-      </c>
-      <c r="B34" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>34</v>
-      </c>
-      <c r="B35" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>35</v>
-      </c>
-      <c r="B36" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>36</v>
-      </c>
-      <c r="B37" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>37</v>
-      </c>
-      <c r="B38" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>38</v>
-      </c>
-      <c r="B39" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>39</v>
-      </c>
-      <c r="B40" t="s">
-        <v>75</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AE58389-09F4-4B9B-AE9B-F4FA1FE86211}">
   <dimension ref="A1:D41"/>
   <sheetViews>
@@ -1643,6 +1303,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="c8e3c621-944b-4b18-beee-61e0324a86cd">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="f608d11f-b353-490d-9130-5a44a58122a2" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010043FDEB035DA74E448CDA37477BF42340" ma:contentTypeVersion="12" ma:contentTypeDescription="Criar um novo documento." ma:contentTypeScope="" ma:versionID="d701f75f2990b357cda15c6115325b6d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c8e3c621-944b-4b18-beee-61e0324a86cd" xmlns:ns3="f608d11f-b353-490d-9130-5a44a58122a2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4631b3025ae9a9f9488bafe4c4e29cdf" ns2:_="" ns3:_="">
     <xsd:import namespace="c8e3c621-944b-4b18-beee-61e0324a86cd"/>
@@ -1843,27 +1523,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EB20E2AE-85DA-414B-9F50-DE188A854213}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c8e3c621-944b-4b18-beee-61e0324a86cd"/>
+    <ds:schemaRef ds:uri="f608d11f-b353-490d-9130-5a44a58122a2"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="c8e3c621-944b-4b18-beee-61e0324a86cd">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="f608d11f-b353-490d-9130-5a44a58122a2" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3D76EA24-C913-488F-A21F-2ADAF39F7ADE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CAA65670-B084-4760-8936-AA93C5FA0014}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1880,23 +1559,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3D76EA24-C913-488F-A21F-2ADAF39F7ADE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EB20E2AE-85DA-414B-9F50-DE188A854213}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c8e3c621-944b-4b18-beee-61e0324a86cd"/>
-    <ds:schemaRef ds:uri="f608d11f-b353-490d-9130-5a44a58122a2"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>